--- a/Syllabus.xlsx
+++ b/Syllabus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\파이썬프로그래밍1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E287B188-7F71-454F-8B22-B533DB67BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8561D8E3-CE87-4E3A-A4F6-83F719F3E113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic information" sheetId="3" r:id="rId1"/>
@@ -649,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -865,11 +865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
